--- a/현황표.xlsx
+++ b/현황표.xlsx
@@ -424,8 +424,14 @@
       <c r="G1" t="str">
         <v>케어</v>
       </c>
+      <c r="H1" t="str">
+        <v>진해중</v>
+      </c>
       <c r="I1" t="str">
         <v>작은방</v>
+      </c>
+      <c r="J1" t="str">
+        <v>진해웆</v>
       </c>
       <c r="K1" t="str">
         <v>아이방</v>
@@ -529,6 +535,9 @@
       <c r="I4" t="str">
         <v>거실</v>
       </c>
+      <c r="J4" t="str">
+        <v>o</v>
+      </c>
       <c r="K4" t="str">
         <v>창문</v>
       </c>
@@ -561,6 +570,9 @@
       <c r="I5" t="str">
         <v>벽</v>
       </c>
+      <c r="J5" t="str">
+        <v>o</v>
+      </c>
       <c r="K5" t="str">
         <v>엘지</v>
       </c>
@@ -612,6 +624,9 @@
       </c>
       <c r="E7" t="str">
         <v>홈캉스</v>
+      </c>
+      <c r="F7" t="str">
+        <v>o</v>
       </c>
       <c r="I7" t="str">
         <v>펫도어</v>

--- a/현황표.xlsx
+++ b/현황표.xlsx
@@ -605,6 +605,9 @@
       <c r="I6" t="str">
         <v>확장형</v>
       </c>
+      <c r="J6" t="str">
+        <v>o</v>
+      </c>
       <c r="K6" t="str">
         <v>LG</v>
       </c>
@@ -631,6 +634,9 @@
       <c r="I7" t="str">
         <v>펫도어</v>
       </c>
+      <c r="J7" t="str">
+        <v>o</v>
+      </c>
       <c r="K7" t="str">
         <v>비스포크</v>
       </c>
@@ -656,6 +662,9 @@
       </c>
       <c r="I8" t="str">
         <v>복층</v>
+      </c>
+      <c r="J8" t="str">
+        <v>o</v>
       </c>
     </row>
     <row r="9">
